--- a/data/trans_orig/P56S1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P56S1-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46CF5669-72F1-453D-9D88-687D134C98A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84D5549D-4B2B-4475-B6FC-9C44E7FC7EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ABB7BF3E-3A68-4ECA-80D1-F94EBD3B0CB3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C89EF46C-5A40-4720-BFA6-8CE21F265A9A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2908" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2908" uniqueCount="285">
   <si>
     <t>Población según quien le ayuda cuando tiene dificultades / respuesta 1 en 2007 (Tasa respuesta: 2,12%)</t>
   </si>
@@ -134,772 +134,766 @@
     <t>4,85%</t>
   </si>
   <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
   </si>
   <si>
     <t>3,2%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
   </si>
   <si>
     <t>7,17%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
   </si>
   <si>
     <t>11,54%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
   </si>
   <si>
     <t>10,05%</t>
   </si>
   <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
   </si>
   <si>
     <t>4,23%</t>
   </si>
   <si>
-    <t>14,55%</t>
+    <t>12,75%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 1 en 2012 (Tasa respuesta: 3,93%)</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 1 en 2015 (Tasa respuesta: 3,27%)</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 1 en 2023 (Tasa respuesta: 7,85%)</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
     <t>7,23%</t>
   </si>
   <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
   </si>
   <si>
     <t>5,42%</t>
   </si>
   <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 1 en 2012 (Tasa respuesta: 3,93%)</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
   </si>
   <si>
     <t>8,49%</t>
   </si>
   <si>
-    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 1 en 2015 (Tasa respuesta: 3,27%)</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
   </si>
   <si>
     <t>1,55%</t>
   </si>
   <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 1 en 2023 (Tasa respuesta: 7,85%)</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
   </si>
   <si>
     <t>38,58%</t>
   </si>
   <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
   </si>
   <si>
     <t>45,91%</t>
   </si>
   <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
   </si>
   <si>
     <t>43,84%</t>
   </si>
   <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
   </si>
   <si>
     <t>7,97%</t>
   </si>
   <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
   </si>
   <si>
     <t>16,46%</t>
   </si>
   <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
   </si>
   <si>
     <t>35,85%</t>
   </si>
   <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
   </si>
   <si>
     <t>14,47%</t>
   </si>
   <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
   </si>
   <si>
     <t>20,49%</t>
   </si>
   <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
   </si>
   <si>
     <t>5,34%</t>
   </si>
   <si>
-    <t>8,99%</t>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
   </si>
   <si>
     <t>4,53%</t>
   </si>
   <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
   </si>
   <si>
     <t>4,75%</t>
   </si>
   <si>
-    <t>6,59%</t>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B381917-FF32-47D3-BBD9-807C0CA296AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236F7A6E-02F3-4FAF-8165-E7B71E35AD63}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4729,7 +4723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB904C10-1B9C-4792-9617-A8E773878710}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEF16BC-4266-4905-B784-0FA5574F828B}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7251,7 +7245,7 @@
         <v>107</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -7266,13 +7260,13 @@
         <v>4307</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H57" s="7">
         <v>21</v>
@@ -7281,13 +7275,13 @@
         <v>23614</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M57" s="7">
         <v>25</v>
@@ -7296,10 +7290,10 @@
         <v>27921</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="Q57" s="7" t="s">
         <v>116</v>
@@ -7335,10 +7329,10 @@
         <v>117</v>
       </c>
       <c r="K58" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L58" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L58" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M58" s="7">
         <v>4</v>
@@ -7347,13 +7341,13 @@
         <v>4344</v>
       </c>
       <c r="O58" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P58" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P58" s="7" t="s">
+      <c r="Q58" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q58" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -7368,13 +7362,13 @@
         <v>17075</v>
       </c>
       <c r="E59" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F59" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="G59" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H59" s="7">
         <v>49</v>
@@ -7383,13 +7377,13 @@
         <v>52517</v>
       </c>
       <c r="J59" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K59" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K59" s="7" t="s">
+      <c r="L59" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L59" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M59" s="7">
         <v>65</v>
@@ -7398,13 +7392,13 @@
         <v>69592</v>
       </c>
       <c r="O59" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P59" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q59" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P59" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q59" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -7419,13 +7413,13 @@
         <v>14930</v>
       </c>
       <c r="E60" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G60" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H60" s="7">
         <v>52</v>
@@ -7434,13 +7428,13 @@
         <v>57651</v>
       </c>
       <c r="J60" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L60" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L60" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M60" s="7">
         <v>64</v>
@@ -7449,13 +7443,13 @@
         <v>72582</v>
       </c>
       <c r="O60" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P60" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q60" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P60" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q60" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -7470,13 +7464,13 @@
         <v>33638</v>
       </c>
       <c r="E61" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G61" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H61" s="7">
         <v>26</v>
@@ -7485,13 +7479,13 @@
         <v>28596</v>
       </c>
       <c r="J61" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L61" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L61" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M61" s="7">
         <v>54</v>
@@ -7500,13 +7494,13 @@
         <v>62234</v>
       </c>
       <c r="O61" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P61" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q61" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P61" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q61" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -7521,13 +7515,13 @@
         <v>2056</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H62" s="7">
         <v>13</v>
@@ -7536,13 +7530,13 @@
         <v>13452</v>
       </c>
       <c r="J62" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L62" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L62" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M62" s="7">
         <v>15</v>
@@ -7551,13 +7545,13 @@
         <v>15508</v>
       </c>
       <c r="O62" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P62" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q62" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P62" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q62" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -7763,7 +7757,7 @@
         <v>107</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -7778,13 +7772,13 @@
         <v>4307</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H67" s="7">
         <v>21</v>
@@ -7793,13 +7787,13 @@
         <v>23614</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M67" s="7">
         <v>25</v>
@@ -7808,10 +7802,10 @@
         <v>27921</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="Q67" s="7" t="s">
         <v>116</v>
@@ -7847,10 +7841,10 @@
         <v>117</v>
       </c>
       <c r="K68" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L68" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L68" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M68" s="7">
         <v>4</v>
@@ -7859,13 +7853,13 @@
         <v>4344</v>
       </c>
       <c r="O68" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P68" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P68" s="7" t="s">
+      <c r="Q68" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q68" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -7880,13 +7874,13 @@
         <v>17075</v>
       </c>
       <c r="E69" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F69" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="G69" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H69" s="7">
         <v>49</v>
@@ -7895,13 +7889,13 @@
         <v>52517</v>
       </c>
       <c r="J69" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K69" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K69" s="7" t="s">
+      <c r="L69" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L69" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M69" s="7">
         <v>65</v>
@@ -7910,13 +7904,13 @@
         <v>69592</v>
       </c>
       <c r="O69" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P69" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q69" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P69" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q69" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -7931,13 +7925,13 @@
         <v>14930</v>
       </c>
       <c r="E70" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G70" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H70" s="7">
         <v>52</v>
@@ -7946,13 +7940,13 @@
         <v>57651</v>
       </c>
       <c r="J70" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L70" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K70" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L70" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M70" s="7">
         <v>64</v>
@@ -7961,13 +7955,13 @@
         <v>72582</v>
       </c>
       <c r="O70" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P70" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q70" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P70" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q70" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -7982,13 +7976,13 @@
         <v>33638</v>
       </c>
       <c r="E71" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G71" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H71" s="7">
         <v>26</v>
@@ -7997,13 +7991,13 @@
         <v>28596</v>
       </c>
       <c r="J71" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L71" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K71" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L71" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M71" s="7">
         <v>54</v>
@@ -8012,13 +8006,13 @@
         <v>62234</v>
       </c>
       <c r="O71" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P71" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q71" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P71" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q71" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -8033,13 +8027,13 @@
         <v>2056</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H72" s="7">
         <v>13</v>
@@ -8048,13 +8042,13 @@
         <v>13452</v>
       </c>
       <c r="J72" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L72" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K72" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L72" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M72" s="7">
         <v>15</v>
@@ -8063,13 +8057,13 @@
         <v>15508</v>
       </c>
       <c r="O72" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P72" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q72" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P72" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q72" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -8147,7 +8141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B180BF-EED4-4BE0-A60A-EB1BB9525422}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD4E096A-006F-4401-996B-20F1981374B0}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8164,7 +8158,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -10531,13 +10525,13 @@
         <v>1300</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H54" s="7">
         <v>1</v>
@@ -10546,13 +10540,13 @@
         <v>1259</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M54" s="7">
         <v>2</v>
@@ -10561,13 +10555,13 @@
         <v>2559</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -10588,7 +10582,7 @@
         <v>25</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -10603,7 +10597,7 @@
         <v>26</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M55" s="7">
         <v>1</v>
@@ -10612,13 +10606,13 @@
         <v>736</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P55" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -10639,7 +10633,7 @@
         <v>25</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H56" s="7">
         <v>5</v>
@@ -10648,13 +10642,13 @@
         <v>6285</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M56" s="7">
         <v>7</v>
@@ -10663,13 +10657,13 @@
         <v>7896</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>174</v>
+        <v>29</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -10684,13 +10678,13 @@
         <v>9746</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H57" s="7">
         <v>18</v>
@@ -10699,13 +10693,13 @@
         <v>24130</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M57" s="7">
         <v>29</v>
@@ -10714,13 +10708,13 @@
         <v>33876</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -10741,7 +10735,7 @@
         <v>26</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H58" s="7">
         <v>2</v>
@@ -10750,13 +10744,13 @@
         <v>2170</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="M58" s="7">
         <v>2</v>
@@ -10765,13 +10759,13 @@
         <v>2170</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="P58" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -10786,13 +10780,13 @@
         <v>10447</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H59" s="7">
         <v>32</v>
@@ -10801,13 +10795,13 @@
         <v>40105</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M59" s="7">
         <v>44</v>
@@ -10816,13 +10810,13 @@
         <v>50552</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -10837,13 +10831,13 @@
         <v>8446</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H60" s="7">
         <v>35</v>
@@ -10852,13 +10846,13 @@
         <v>45033</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="M60" s="7">
         <v>45</v>
@@ -10867,13 +10861,13 @@
         <v>53479</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -10888,13 +10882,13 @@
         <v>33980</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H61" s="7">
         <v>20</v>
@@ -10903,13 +10897,13 @@
         <v>24193</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="M61" s="7">
         <v>56</v>
@@ -10918,13 +10912,13 @@
         <v>58173</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -10939,13 +10933,13 @@
         <v>5831</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>33</v>
+        <v>212</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H62" s="7">
         <v>24</v>
@@ -10954,13 +10948,13 @@
         <v>28613</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M62" s="7">
         <v>29</v>
@@ -10969,13 +10963,13 @@
         <v>34444</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>222</v>
+        <v>149</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -11043,13 +11037,13 @@
         <v>1300</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H64" s="7">
         <v>1</v>
@@ -11058,13 +11052,13 @@
         <v>1259</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K64" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M64" s="7">
         <v>2</v>
@@ -11073,13 +11067,13 @@
         <v>2559</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P64" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -11100,7 +11094,7 @@
         <v>25</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
@@ -11115,7 +11109,7 @@
         <v>26</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M65" s="7">
         <v>1</v>
@@ -11124,13 +11118,13 @@
         <v>736</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P65" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -11151,7 +11145,7 @@
         <v>25</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H66" s="7">
         <v>5</v>
@@ -11160,13 +11154,13 @@
         <v>6285</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M66" s="7">
         <v>7</v>
@@ -11175,13 +11169,13 @@
         <v>7896</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>174</v>
+        <v>29</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -11196,13 +11190,13 @@
         <v>9746</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H67" s="7">
         <v>18</v>
@@ -11211,13 +11205,13 @@
         <v>24130</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M67" s="7">
         <v>29</v>
@@ -11226,13 +11220,13 @@
         <v>33876</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -11253,7 +11247,7 @@
         <v>26</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H68" s="7">
         <v>2</v>
@@ -11262,13 +11256,13 @@
         <v>2170</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="K68" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="M68" s="7">
         <v>2</v>
@@ -11277,13 +11271,13 @@
         <v>2170</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="P68" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -11298,13 +11292,13 @@
         <v>10447</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H69" s="7">
         <v>32</v>
@@ -11313,13 +11307,13 @@
         <v>40105</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M69" s="7">
         <v>44</v>
@@ -11328,13 +11322,13 @@
         <v>50552</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -11349,13 +11343,13 @@
         <v>8446</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H70" s="7">
         <v>35</v>
@@ -11364,13 +11358,13 @@
         <v>45033</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="M70" s="7">
         <v>45</v>
@@ -11379,13 +11373,13 @@
         <v>53479</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -11400,13 +11394,13 @@
         <v>33980</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H71" s="7">
         <v>20</v>
@@ -11415,13 +11409,13 @@
         <v>24193</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="M71" s="7">
         <v>56</v>
@@ -11430,13 +11424,13 @@
         <v>58173</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -11451,13 +11445,13 @@
         <v>5831</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>33</v>
+        <v>212</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H72" s="7">
         <v>24</v>
@@ -11466,13 +11460,13 @@
         <v>28613</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M72" s="7">
         <v>29</v>
@@ -11481,13 +11475,13 @@
         <v>34444</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>222</v>
+        <v>149</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -11565,7 +11559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4180F46-2E87-42BE-AAF3-17574A19DDD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8BEBF1-D2F5-47A5-89C4-0273C57D5FB1}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11582,7 +11576,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -13955,7 +13949,7 @@
         <v>26</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H54" s="7">
         <v>1</v>
@@ -13964,13 +13958,13 @@
         <v>662</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M54" s="7">
         <v>1</v>
@@ -13979,13 +13973,13 @@
         <v>662</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -14006,7 +14000,7 @@
         <v>26</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -14021,7 +14015,7 @@
         <v>26</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M55" s="7">
         <v>0</v>
@@ -14036,7 +14030,7 @@
         <v>26</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -14051,13 +14045,13 @@
         <v>5911</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H56" s="7">
         <v>28</v>
@@ -14066,13 +14060,13 @@
         <v>14216</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>112</v>
+        <v>231</v>
       </c>
       <c r="M56" s="7">
         <v>37</v>
@@ -14081,13 +14075,13 @@
         <v>20128</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>237</v>
+        <v>151</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -14102,13 +14096,13 @@
         <v>5994</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>86</v>
+        <v>234</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H57" s="7">
         <v>42</v>
@@ -14117,13 +14111,13 @@
         <v>23943</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>157</v>
+        <v>237</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M57" s="7">
         <v>51</v>
@@ -14132,13 +14126,13 @@
         <v>29938</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -14153,13 +14147,13 @@
         <v>1652</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H58" s="7">
         <v>7</v>
@@ -14168,13 +14162,13 @@
         <v>4362</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M58" s="7">
         <v>10</v>
@@ -14183,13 +14177,13 @@
         <v>6014</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>251</v>
+        <v>34</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -14204,13 +14198,13 @@
         <v>42652</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H59" s="7">
         <v>240</v>
@@ -14219,13 +14213,13 @@
         <v>129433</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M59" s="7">
         <v>306</v>
@@ -14234,13 +14228,13 @@
         <v>172085</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -14255,13 +14249,13 @@
         <v>8809</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H60" s="7">
         <v>96</v>
@@ -14270,13 +14264,13 @@
         <v>55783</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>265</v>
+        <v>144</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M60" s="7">
         <v>110</v>
@@ -14285,13 +14279,13 @@
         <v>64592</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -14306,13 +14300,13 @@
         <v>39628</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H61" s="7">
         <v>76</v>
@@ -14321,13 +14315,13 @@
         <v>40786</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M61" s="7">
         <v>136</v>
@@ -14336,13 +14330,13 @@
         <v>80414</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -14357,13 +14351,13 @@
         <v>5898</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>150</v>
+        <v>277</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H62" s="7">
         <v>25</v>
@@ -14372,13 +14366,13 @@
         <v>12759</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M62" s="7">
         <v>35</v>
@@ -14387,13 +14381,13 @@
         <v>18657</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>235</v>
+        <v>283</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -14467,7 +14461,7 @@
         <v>26</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H64" s="7">
         <v>1</v>
@@ -14476,13 +14470,13 @@
         <v>662</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="K64" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M64" s="7">
         <v>1</v>
@@ -14491,13 +14485,13 @@
         <v>662</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="P64" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -14518,7 +14512,7 @@
         <v>26</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
@@ -14533,7 +14527,7 @@
         <v>26</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M65" s="7">
         <v>0</v>
@@ -14548,7 +14542,7 @@
         <v>26</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -14563,13 +14557,13 @@
         <v>5911</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H66" s="7">
         <v>28</v>
@@ -14578,13 +14572,13 @@
         <v>14216</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>112</v>
+        <v>231</v>
       </c>
       <c r="M66" s="7">
         <v>37</v>
@@ -14593,13 +14587,13 @@
         <v>20128</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>237</v>
+        <v>151</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -14614,13 +14608,13 @@
         <v>5994</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>86</v>
+        <v>234</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H67" s="7">
         <v>42</v>
@@ -14629,13 +14623,13 @@
         <v>23943</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>157</v>
+        <v>237</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M67" s="7">
         <v>51</v>
@@ -14644,13 +14638,13 @@
         <v>29938</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -14665,13 +14659,13 @@
         <v>1652</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H68" s="7">
         <v>7</v>
@@ -14680,13 +14674,13 @@
         <v>4362</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M68" s="7">
         <v>10</v>
@@ -14695,13 +14689,13 @@
         <v>6014</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>251</v>
+        <v>34</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -14716,13 +14710,13 @@
         <v>42652</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H69" s="7">
         <v>240</v>
@@ -14731,13 +14725,13 @@
         <v>129433</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M69" s="7">
         <v>306</v>
@@ -14746,13 +14740,13 @@
         <v>172085</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -14767,13 +14761,13 @@
         <v>8809</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H70" s="7">
         <v>96</v>
@@ -14782,13 +14776,13 @@
         <v>55783</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>265</v>
+        <v>144</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M70" s="7">
         <v>110</v>
@@ -14797,13 +14791,13 @@
         <v>64592</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -14818,13 +14812,13 @@
         <v>39628</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H71" s="7">
         <v>76</v>
@@ -14833,13 +14827,13 @@
         <v>40786</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M71" s="7">
         <v>136</v>
@@ -14848,13 +14842,13 @@
         <v>80414</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -14869,13 +14863,13 @@
         <v>5898</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>150</v>
+        <v>277</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H72" s="7">
         <v>25</v>
@@ -14884,13 +14878,13 @@
         <v>12759</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M72" s="7">
         <v>35</v>
@@ -14899,13 +14893,13 @@
         <v>18657</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>235</v>
+        <v>283</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P56S1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P56S1-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84D5549D-4B2B-4475-B6FC-9C44E7FC7EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8007211B-8994-4721-893B-546388260210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C89EF46C-5A40-4720-BFA6-8CE21F265A9A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C242BBBA-D96A-4F4A-BBC6-10C45660DE1D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2908" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2908" uniqueCount="290">
   <si>
     <t>Población según quien le ayuda cuando tiene dificultades / respuesta 1 en 2007 (Tasa respuesta: 2,12%)</t>
   </si>
@@ -134,699 +134,717 @@
     <t>4,85%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
   </si>
   <si>
     <t>3,2%</t>
   </si>
   <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 1 en 2012 (Tasa respuesta: 3,93%)</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 1 en 2016 (Tasa respuesta: 3,27%)</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 1 en 2023 (Tasa respuesta: 7,85%)</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 1 en 2012 (Tasa respuesta: 3,93%)</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
   </si>
   <si>
     <t>19,79%</t>
   </si>
   <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 1 en 2015 (Tasa respuesta: 3,27%)</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 1 en 2023 (Tasa respuesta: 7,85%)</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
     <t>16,7%</t>
   </si>
   <si>
@@ -837,9 +855,6 @@
   </si>
   <si>
     <t>13,62%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
   </si>
   <si>
     <t>35,85%</t>
@@ -1305,7 +1320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236F7A6E-02F3-4FAF-8165-E7B71E35AD63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85443D30-68AB-4768-BDC2-C9EA9E52E529}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4115,10 +4130,10 @@
         <v>82</v>
       </c>
       <c r="K62" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L62" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L62" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M62" s="7">
         <v>13</v>
@@ -4127,13 +4142,13 @@
         <v>13391</v>
       </c>
       <c r="O62" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P62" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P62" s="7" t="s">
+      <c r="Q62" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q62" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,13 +4163,13 @@
         <v>48281</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H63" s="7">
         <v>85</v>
@@ -4163,13 +4178,13 @@
         <v>93545</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M63" s="7">
         <v>138</v>
@@ -4178,13 +4193,13 @@
         <v>141825</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4627,10 +4642,10 @@
         <v>82</v>
       </c>
       <c r="K72" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L72" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L72" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M72" s="7">
         <v>13</v>
@@ -4639,13 +4654,13 @@
         <v>13391</v>
       </c>
       <c r="O72" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P72" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P72" s="7" t="s">
+      <c r="Q72" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q72" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -4660,13 +4675,13 @@
         <v>48281</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H73" s="7">
         <v>85</v>
@@ -4675,13 +4690,13 @@
         <v>93545</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M73" s="7">
         <v>138</v>
@@ -4690,18 +4705,18 @@
         <v>141825</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -4723,7 +4738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEF16BC-4266-4905-B784-0FA5574F828B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBB373A-F082-47E1-B877-FB0862057DB6}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4740,7 +4755,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7107,13 +7122,13 @@
         <v>998</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H54" s="7">
         <v>1</v>
@@ -7122,13 +7137,13 @@
         <v>1100</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M54" s="7">
         <v>2</v>
@@ -7137,13 +7152,13 @@
         <v>2097</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -7164,7 +7179,7 @@
         <v>26</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -7179,7 +7194,7 @@
         <v>26</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M55" s="7">
         <v>0</v>
@@ -7194,7 +7209,7 @@
         <v>26</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -7209,13 +7224,13 @@
         <v>5501</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="G56" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H56" s="7">
         <v>22</v>
@@ -7224,13 +7239,13 @@
         <v>23971</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K56" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="L56" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M56" s="7">
         <v>27</v>
@@ -7239,13 +7254,13 @@
         <v>29472</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -7260,13 +7275,13 @@
         <v>4307</v>
       </c>
       <c r="E57" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G57" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H57" s="7">
         <v>21</v>
@@ -7275,13 +7290,13 @@
         <v>23614</v>
       </c>
       <c r="J57" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L57" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K57" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L57" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M57" s="7">
         <v>25</v>
@@ -7290,13 +7305,13 @@
         <v>27921</v>
       </c>
       <c r="O57" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P57" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q57" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P57" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q57" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -7317,7 +7332,7 @@
         <v>26</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H58" s="7">
         <v>4</v>
@@ -7326,13 +7341,13 @@
         <v>4344</v>
       </c>
       <c r="J58" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L58" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K58" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L58" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M58" s="7">
         <v>4</v>
@@ -7341,13 +7356,13 @@
         <v>4344</v>
       </c>
       <c r="O58" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P58" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P58" s="7" t="s">
+      <c r="Q58" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q58" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -7362,13 +7377,13 @@
         <v>17075</v>
       </c>
       <c r="E59" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F59" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="G59" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H59" s="7">
         <v>49</v>
@@ -7377,13 +7392,13 @@
         <v>52517</v>
       </c>
       <c r="J59" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K59" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K59" s="7" t="s">
+      <c r="L59" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L59" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M59" s="7">
         <v>65</v>
@@ -7392,10 +7407,10 @@
         <v>69592</v>
       </c>
       <c r="O59" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P59" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P59" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="Q59" s="7" t="s">
         <v>129</v>
@@ -7566,13 +7581,13 @@
         <v>78505</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H63" s="7">
         <v>188</v>
@@ -7581,13 +7596,13 @@
         <v>205245</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M63" s="7">
         <v>256</v>
@@ -7596,13 +7611,13 @@
         <v>283750</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -7619,13 +7634,13 @@
         <v>998</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H64" s="7">
         <v>1</v>
@@ -7634,13 +7649,13 @@
         <v>1100</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K64" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M64" s="7">
         <v>2</v>
@@ -7649,13 +7664,13 @@
         <v>2097</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P64" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -7676,7 +7691,7 @@
         <v>26</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
@@ -7691,7 +7706,7 @@
         <v>26</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M65" s="7">
         <v>0</v>
@@ -7706,7 +7721,7 @@
         <v>26</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -7721,13 +7736,13 @@
         <v>5501</v>
       </c>
       <c r="E66" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F66" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="G66" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H66" s="7">
         <v>22</v>
@@ -7736,13 +7751,13 @@
         <v>23971</v>
       </c>
       <c r="J66" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K66" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K66" s="7" t="s">
+      <c r="L66" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L66" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M66" s="7">
         <v>27</v>
@@ -7751,13 +7766,13 @@
         <v>29472</v>
       </c>
       <c r="O66" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P66" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q66" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P66" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q66" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -7772,13 +7787,13 @@
         <v>4307</v>
       </c>
       <c r="E67" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G67" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H67" s="7">
         <v>21</v>
@@ -7787,13 +7802,13 @@
         <v>23614</v>
       </c>
       <c r="J67" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L67" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K67" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L67" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M67" s="7">
         <v>25</v>
@@ -7802,13 +7817,13 @@
         <v>27921</v>
       </c>
       <c r="O67" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P67" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q67" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P67" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q67" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -7829,7 +7844,7 @@
         <v>26</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H68" s="7">
         <v>4</v>
@@ -7838,13 +7853,13 @@
         <v>4344</v>
       </c>
       <c r="J68" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L68" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K68" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L68" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M68" s="7">
         <v>4</v>
@@ -7853,13 +7868,13 @@
         <v>4344</v>
       </c>
       <c r="O68" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P68" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P68" s="7" t="s">
+      <c r="Q68" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q68" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -7874,13 +7889,13 @@
         <v>17075</v>
       </c>
       <c r="E69" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F69" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="G69" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H69" s="7">
         <v>49</v>
@@ -7889,13 +7904,13 @@
         <v>52517</v>
       </c>
       <c r="J69" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K69" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K69" s="7" t="s">
+      <c r="L69" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L69" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M69" s="7">
         <v>65</v>
@@ -7904,10 +7919,10 @@
         <v>69592</v>
       </c>
       <c r="O69" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P69" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P69" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="Q69" s="7" t="s">
         <v>129</v>
@@ -8078,13 +8093,13 @@
         <v>78505</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H73" s="7">
         <v>188</v>
@@ -8093,13 +8108,13 @@
         <v>205245</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M73" s="7">
         <v>256</v>
@@ -8108,18 +8123,18 @@
         <v>283750</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -8141,7 +8156,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD4E096A-006F-4401-996B-20F1981374B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD374C7-B2E5-445A-8D9B-1DCEAD7D099E}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10576,7 +10591,7 @@
         <v>736</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>25</v>
@@ -10645,10 +10660,10 @@
         <v>168</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M56" s="7">
         <v>7</v>
@@ -10657,13 +10672,13 @@
         <v>7896</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -10678,13 +10693,13 @@
         <v>9746</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H57" s="7">
         <v>18</v>
@@ -10693,13 +10708,13 @@
         <v>24130</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M57" s="7">
         <v>29</v>
@@ -10708,13 +10723,13 @@
         <v>33876</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -10735,7 +10750,7 @@
         <v>26</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H58" s="7">
         <v>2</v>
@@ -10744,13 +10759,13 @@
         <v>2170</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M58" s="7">
         <v>2</v>
@@ -10759,13 +10774,13 @@
         <v>2170</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P58" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -10780,13 +10795,13 @@
         <v>10447</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H59" s="7">
         <v>32</v>
@@ -10795,13 +10810,13 @@
         <v>40105</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M59" s="7">
         <v>44</v>
@@ -10810,13 +10825,13 @@
         <v>50552</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -10831,13 +10846,13 @@
         <v>8446</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H60" s="7">
         <v>35</v>
@@ -10846,13 +10861,13 @@
         <v>45033</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M60" s="7">
         <v>45</v>
@@ -10864,10 +10879,10 @@
         <v>145</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -10882,13 +10897,13 @@
         <v>33980</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H61" s="7">
         <v>20</v>
@@ -10897,13 +10912,13 @@
         <v>24193</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M61" s="7">
         <v>56</v>
@@ -10912,13 +10927,13 @@
         <v>58173</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -10933,13 +10948,13 @@
         <v>5831</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H62" s="7">
         <v>24</v>
@@ -10948,13 +10963,13 @@
         <v>28613</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M62" s="7">
         <v>29</v>
@@ -10963,13 +10978,13 @@
         <v>34444</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -10984,13 +10999,13 @@
         <v>72097</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H63" s="7">
         <v>137</v>
@@ -10999,13 +11014,13 @@
         <v>171788</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M63" s="7">
         <v>215</v>
@@ -11014,13 +11029,13 @@
         <v>243885</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -11088,7 +11103,7 @@
         <v>736</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>25</v>
@@ -11157,10 +11172,10 @@
         <v>168</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M66" s="7">
         <v>7</v>
@@ -11169,13 +11184,13 @@
         <v>7896</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -11190,13 +11205,13 @@
         <v>9746</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H67" s="7">
         <v>18</v>
@@ -11205,13 +11220,13 @@
         <v>24130</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M67" s="7">
         <v>29</v>
@@ -11220,13 +11235,13 @@
         <v>33876</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -11247,7 +11262,7 @@
         <v>26</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H68" s="7">
         <v>2</v>
@@ -11256,13 +11271,13 @@
         <v>2170</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K68" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M68" s="7">
         <v>2</v>
@@ -11271,13 +11286,13 @@
         <v>2170</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P68" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -11292,13 +11307,13 @@
         <v>10447</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H69" s="7">
         <v>32</v>
@@ -11307,13 +11322,13 @@
         <v>40105</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M69" s="7">
         <v>44</v>
@@ -11322,13 +11337,13 @@
         <v>50552</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -11343,13 +11358,13 @@
         <v>8446</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H70" s="7">
         <v>35</v>
@@ -11358,13 +11373,13 @@
         <v>45033</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M70" s="7">
         <v>45</v>
@@ -11376,10 +11391,10 @@
         <v>145</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -11394,13 +11409,13 @@
         <v>33980</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H71" s="7">
         <v>20</v>
@@ -11409,13 +11424,13 @@
         <v>24193</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M71" s="7">
         <v>56</v>
@@ -11424,13 +11439,13 @@
         <v>58173</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -11445,13 +11460,13 @@
         <v>5831</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H72" s="7">
         <v>24</v>
@@ -11460,13 +11475,13 @@
         <v>28613</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M72" s="7">
         <v>29</v>
@@ -11475,13 +11490,13 @@
         <v>34444</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -11496,13 +11511,13 @@
         <v>72097</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H73" s="7">
         <v>137</v>
@@ -11511,13 +11526,13 @@
         <v>171788</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M73" s="7">
         <v>215</v>
@@ -11526,18 +11541,18 @@
         <v>243885</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -11559,7 +11574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8BEBF1-D2F5-47A5-89C4-0273C57D5FB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD4E28B-B588-4C19-800E-154916AF8312}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11576,7 +11591,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -13949,7 +13964,7 @@
         <v>26</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H54" s="7">
         <v>1</v>
@@ -13958,13 +13973,13 @@
         <v>662</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M54" s="7">
         <v>1</v>
@@ -13973,13 +13988,13 @@
         <v>662</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -14000,7 +14015,7 @@
         <v>26</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -14015,7 +14030,7 @@
         <v>26</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M55" s="7">
         <v>0</v>
@@ -14030,7 +14045,7 @@
         <v>26</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -14045,13 +14060,13 @@
         <v>5911</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H56" s="7">
         <v>28</v>
@@ -14060,13 +14075,13 @@
         <v>14216</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M56" s="7">
         <v>37</v>
@@ -14075,13 +14090,13 @@
         <v>20128</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>151</v>
+        <v>236</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -14096,13 +14111,13 @@
         <v>5994</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H57" s="7">
         <v>42</v>
@@ -14111,13 +14126,13 @@
         <v>23943</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M57" s="7">
         <v>51</v>
@@ -14126,13 +14141,13 @@
         <v>29938</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -14147,13 +14162,13 @@
         <v>1652</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="H58" s="7">
         <v>7</v>
@@ -14162,13 +14177,13 @@
         <v>4362</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="M58" s="7">
         <v>10</v>
@@ -14177,13 +14192,13 @@
         <v>6014</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>34</v>
+        <v>253</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -14198,13 +14213,13 @@
         <v>42652</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="H59" s="7">
         <v>240</v>
@@ -14213,13 +14228,13 @@
         <v>129433</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="M59" s="7">
         <v>306</v>
@@ -14228,13 +14243,13 @@
         <v>172085</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -14249,13 +14264,13 @@
         <v>8809</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="H60" s="7">
         <v>96</v>
@@ -14264,13 +14279,13 @@
         <v>55783</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>144</v>
+        <v>267</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="M60" s="7">
         <v>110</v>
@@ -14279,13 +14294,13 @@
         <v>64592</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>266</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -14300,13 +14315,13 @@
         <v>39628</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H61" s="7">
         <v>76</v>
@@ -14315,13 +14330,13 @@
         <v>40786</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="M61" s="7">
         <v>136</v>
@@ -14330,13 +14345,13 @@
         <v>80414</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -14351,13 +14366,13 @@
         <v>5898</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="H62" s="7">
         <v>25</v>
@@ -14366,13 +14381,13 @@
         <v>12759</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="M62" s="7">
         <v>35</v>
@@ -14381,13 +14396,13 @@
         <v>18657</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -14402,13 +14417,13 @@
         <v>110546</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H63" s="7">
         <v>515</v>
@@ -14417,13 +14432,13 @@
         <v>281943</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M63" s="7">
         <v>686</v>
@@ -14432,13 +14447,13 @@
         <v>392489</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -14461,7 +14476,7 @@
         <v>26</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H64" s="7">
         <v>1</v>
@@ -14470,13 +14485,13 @@
         <v>662</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K64" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M64" s="7">
         <v>1</v>
@@ -14485,13 +14500,13 @@
         <v>662</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P64" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -14512,7 +14527,7 @@
         <v>26</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
@@ -14527,7 +14542,7 @@
         <v>26</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M65" s="7">
         <v>0</v>
@@ -14542,7 +14557,7 @@
         <v>26</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -14557,13 +14572,13 @@
         <v>5911</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H66" s="7">
         <v>28</v>
@@ -14572,13 +14587,13 @@
         <v>14216</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M66" s="7">
         <v>37</v>
@@ -14587,13 +14602,13 @@
         <v>20128</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>151</v>
+        <v>236</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -14608,13 +14623,13 @@
         <v>5994</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H67" s="7">
         <v>42</v>
@@ -14623,13 +14638,13 @@
         <v>23943</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M67" s="7">
         <v>51</v>
@@ -14638,13 +14653,13 @@
         <v>29938</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -14659,13 +14674,13 @@
         <v>1652</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="H68" s="7">
         <v>7</v>
@@ -14674,13 +14689,13 @@
         <v>4362</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="M68" s="7">
         <v>10</v>
@@ -14689,13 +14704,13 @@
         <v>6014</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>34</v>
+        <v>253</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -14710,13 +14725,13 @@
         <v>42652</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="H69" s="7">
         <v>240</v>
@@ -14725,13 +14740,13 @@
         <v>129433</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="M69" s="7">
         <v>306</v>
@@ -14740,13 +14755,13 @@
         <v>172085</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -14761,13 +14776,13 @@
         <v>8809</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="H70" s="7">
         <v>96</v>
@@ -14776,13 +14791,13 @@
         <v>55783</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>144</v>
+        <v>267</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="M70" s="7">
         <v>110</v>
@@ -14791,13 +14806,13 @@
         <v>64592</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>266</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -14812,13 +14827,13 @@
         <v>39628</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H71" s="7">
         <v>76</v>
@@ -14827,13 +14842,13 @@
         <v>40786</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="M71" s="7">
         <v>136</v>
@@ -14842,13 +14857,13 @@
         <v>80414</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -14863,13 +14878,13 @@
         <v>5898</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="H72" s="7">
         <v>25</v>
@@ -14878,13 +14893,13 @@
         <v>12759</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="M72" s="7">
         <v>35</v>
@@ -14893,13 +14908,13 @@
         <v>18657</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -14914,13 +14929,13 @@
         <v>110546</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H73" s="7">
         <v>515</v>
@@ -14929,13 +14944,13 @@
         <v>281943</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M73" s="7">
         <v>686</v>
@@ -14944,18 +14959,18 @@
         <v>392489</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
